--- a/Order.xlsx
+++ b/Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OASYS\Commencement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Commencement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E412AB02-853E-4C59-9F54-91B95E3B9977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B5726B-2CB0-C74E-83A9-779BA4C3A208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52575" yWindow="4755" windowWidth="21600" windowHeight="11385" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19780" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Morning Order" sheetId="1" r:id="rId1"/>
@@ -175,40 +175,40 @@
     <t>C_code</t>
   </si>
   <si>
-    <t>FF0000</t>
-  </si>
-  <si>
-    <t>00FF00</t>
-  </si>
-  <si>
-    <t>0000FF</t>
-  </si>
-  <si>
-    <t>FFFF00</t>
-  </si>
-  <si>
-    <t>FF00FF</t>
-  </si>
-  <si>
-    <t>00FFFF</t>
-  </si>
-  <si>
-    <t>000000</t>
-  </si>
-  <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>000003</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t>000005</t>
+    <t>00FFFFFF</t>
+  </si>
+  <si>
+    <t>00808000</t>
+  </si>
+  <si>
+    <t>00008000</t>
+  </si>
+  <si>
+    <t>00FF6600</t>
+  </si>
+  <si>
+    <t>00FF99CC</t>
+  </si>
+  <si>
+    <t>00C0C0C0</t>
+  </si>
+  <si>
+    <t>00CCCCFF</t>
+  </si>
+  <si>
+    <t>003366FF</t>
+  </si>
+  <si>
+    <t>00CC99FF</t>
+  </si>
+  <si>
+    <t>00FF9900</t>
+  </si>
+  <si>
+    <t>00666699</t>
+  </si>
+  <si>
+    <t>00FFCC00</t>
   </si>
 </sst>
 </file>
@@ -216,14 +216,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -231,7 +231,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -244,34 +244,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +295,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -489,8 +489,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -502,20 +502,20 @@
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -921,12 +921,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1186,9 +1186,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Commencement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B5726B-2CB0-C74E-83A9-779BA4C3A208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734217D6-C580-1146-877C-E51C9172676F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19780" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="A8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Commencement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734217D6-C580-1146-877C-E51C9172676F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECC09F3-DF21-6845-82F9-5A0A39398763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19780" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="13180" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Morning Order" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>มนุษยศาสตร์</t>
   </si>
@@ -64,30 +64,12 @@
     <t>ทันตแพทยศาสตร์</t>
   </si>
   <si>
-    <t>เกษตรศาสตร์</t>
-  </si>
-  <si>
-    <t>การสื่อสารมวลชน</t>
-  </si>
-  <si>
-    <t>อุตสาหกรรมเกษตร</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -175,9 +157,6 @@
     <t>C_code</t>
   </si>
   <si>
-    <t>00FFFFFF</t>
-  </si>
-  <si>
     <t>00808000</t>
   </si>
   <si>
@@ -202,13 +181,7 @@
     <t>00CC99FF</t>
   </si>
   <si>
-    <t>00FF9900</t>
-  </si>
-  <si>
-    <t>00666699</t>
-  </si>
-  <si>
-    <t>00FFCC00</t>
+    <t>00F0F0F0</t>
   </si>
 </sst>
 </file>
@@ -921,7 +894,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="A8:F13"/>
+      <selection activeCell="F13" sqref="A11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -931,22 +904,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -961,7 +934,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="15">
         <v>1</v>
@@ -979,7 +952,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F3" s="15">
         <v>10</v>
@@ -997,7 +970,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="38" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F4" s="15">
         <v>7</v>
@@ -1015,7 +988,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="36" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F5" s="15">
         <v>12</v>
@@ -1033,10 +1006,10 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1051,7 +1024,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F7" s="15">
         <v>15</v>
@@ -1069,7 +1042,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="37" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F8" s="15">
         <v>20</v>
@@ -1087,7 +1060,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F9" s="15">
         <v>11</v>
@@ -1105,65 +1078,35 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="37" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14">
-        <v>411</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
-        <v>221</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="14">
-        <v>305</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" s="33"/>
@@ -1193,19 +1136,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1213,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="16">
         <v>19</v>
@@ -1228,14 +1171,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18">
         <v>72</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1243,14 +1186,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="19">
         <v>170</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1258,14 +1201,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="19">
         <v>72</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1273,14 +1216,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C6" s="19">
         <v>445</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1288,14 +1231,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="19">
         <v>176</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1303,14 +1246,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19">
         <v>340</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1318,14 +1261,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" s="19">
         <v>799</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1333,14 +1276,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1348,14 +1291,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="19">
         <v>548</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1363,14 +1306,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="19">
         <v>236</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1378,14 +1321,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="18">
         <v>271</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Commencement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OASYS\Commencement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECC09F3-DF21-6845-82F9-5A0A39398763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED0393F-869D-42FE-98FA-58F6CA32C0EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="13180" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Morning Order" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>มนุษยศาสตร์</t>
   </si>
@@ -55,6 +55,114 @@
     <t>บริหารธุรกิจ</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>F_Code</t>
+  </si>
+  <si>
+    <t>สาธารณสุขศาสตร์</t>
+  </si>
+  <si>
+    <t>สัตวแพทยศาสตร์</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>สังคมศาสตร์</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>สถาปัตยกรรมศาสตร์</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>เศรษฐศาสตร์</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>วิทยาลัยศิลปะฯ</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ศึกษาศาสตร์</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>วิศวกรรมศาสตร์</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Biomed</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>วิจิตรศิลป์</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>รัฐศาสตร์</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>C_code</t>
+  </si>
+  <si>
+    <t>00808000</t>
+  </si>
+  <si>
+    <t>00008000</t>
+  </si>
+  <si>
+    <t>00FF6600</t>
+  </si>
+  <si>
+    <t>00FF99CC</t>
+  </si>
+  <si>
+    <t>00C0C0C0</t>
+  </si>
+  <si>
+    <t>00A0F0F0</t>
+  </si>
+  <si>
     <t>นิติศาสตร์</t>
   </si>
   <si>
@@ -64,124 +172,40 @@
     <t>ทันตแพทยศาสตร์</t>
   </si>
   <si>
-    <t>99</t>
+    <t>เกษตรศาสตร์</t>
+  </si>
+  <si>
+    <t>การสื่อสารมวลชน</t>
+  </si>
+  <si>
+    <t>อุตสาหกรรมเกษตร</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>F_Code</t>
-  </si>
-  <si>
-    <t>สาธารณสุขศาสตร์</t>
-  </si>
-  <si>
-    <t>สัตวแพทยศาสตร์</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>สังคมศาสตร์</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>สถาปัตยกรรมศาสตร์</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>เศรษฐศาสตร์</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>วิทยาลัยศิลปะฯ</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ศึกษาศาสตร์</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>วิศวกรรมศาสตร์</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Biomed</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>วิทยาศาสตร์</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>วิจิตรศิลป์</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>รัฐศาสตร์</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>C_code</t>
-  </si>
-  <si>
-    <t>00808000</t>
-  </si>
-  <si>
-    <t>00008000</t>
-  </si>
-  <si>
-    <t>00FF6600</t>
-  </si>
-  <si>
-    <t>00FF99CC</t>
-  </si>
-  <si>
-    <t>00C0C0C0</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>00CCCCFF</t>
   </si>
   <si>
-    <t>003366FF</t>
+    <t>000066CC</t>
   </si>
   <si>
     <t>00CC99FF</t>
   </si>
   <si>
-    <t>00F0F0F0</t>
+    <t>00666699</t>
+  </si>
+  <si>
+    <t>00FFCC00</t>
   </si>
 </sst>
 </file>
@@ -189,14 +213,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -204,7 +228,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -217,34 +241,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +292,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -462,8 +486,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -475,20 +499,20 @@
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -894,32 +918,32 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="A11:F13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -934,7 +958,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="36" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F2" s="15">
         <v>1</v>
@@ -952,7 +976,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="15">
         <v>10</v>
@@ -970,7 +994,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" s="15">
         <v>7</v>
@@ -988,7 +1012,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F5" s="15">
         <v>12</v>
@@ -1006,10 +1030,10 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1020,11 +1044,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="14">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" s="15">
         <v>15</v>
@@ -1035,14 +1059,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14">
         <v>181</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="37" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F8" s="15">
         <v>20</v>
@@ -1053,14 +1077,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C9" s="14">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F9" s="15">
         <v>11</v>
@@ -1071,42 +1095,72 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C10" s="14">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" s="33"/>
@@ -1129,26 +1183,26 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1156,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="16">
         <v>19</v>
@@ -1171,14 +1225,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="18">
         <v>72</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1186,14 +1240,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="19">
         <v>170</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1201,14 +1255,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="19">
         <v>72</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1216,14 +1270,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="19">
         <v>445</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,14 +1285,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="19">
         <v>176</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1246,14 +1300,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="19">
         <v>340</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1261,14 +1315,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="19">
         <v>799</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1276,14 +1330,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1291,14 +1345,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="19">
         <v>548</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1306,14 +1360,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="19">
         <v>236</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1321,14 +1375,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="18">
         <v>271</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OASYS\Commencement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED0393F-869D-42FE-98FA-58F6CA32C0EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D8998-1C25-4153-9839-EB2211D14C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Morning Order" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1080,7 +1080,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="14">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="37" t="s">
@@ -1098,7 +1098,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="14">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="37" t="s">
@@ -1116,7 +1116,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="14">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="37" t="s">
@@ -1134,7 +1134,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="14">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="37" t="s">
@@ -1152,7 +1152,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="14">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="37" t="s">

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OASYS\Commencement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D8998-1C25-4153-9839-EB2211D14C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA63F18-5F65-42A6-9DA3-487166A914F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Morning Order" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1152,7 +1152,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="14">
-        <v>305</v>
+        <v>605</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="37" t="s">

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OASYS\Commencement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Commencement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA63F18-5F65-42A6-9DA3-487166A914F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3AD5C5-1B7C-B64E-8229-4E246ADD05A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Morning Order" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>มนุษยศาสตร์</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>00FFCC00</t>
+  </si>
+  <si>
+    <t>00FFA500</t>
   </si>
 </sst>
 </file>
@@ -213,14 +216,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -228,7 +231,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -241,34 +244,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +295,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -486,8 +489,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -499,20 +502,20 @@
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -918,12 +921,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1120,7 +1123,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>49</v>
@@ -1183,9 +1186,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Commencement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3AD5C5-1B7C-B64E-8229-4E246ADD05A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794EB378-8358-1842-8BA0-DF08EF274038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Commencement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794EB378-8358-1842-8BA0-DF08EF274038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE6820B-65D6-2849-83E7-6670FC93624D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{33855BC1-CE2C-4067-AA61-0A6F44B94D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Morning Order" sheetId="1" r:id="rId1"/>
-    <sheet name="Afternoon Order" sheetId="3" r:id="rId2"/>
+    <sheet name="Afternoon Order" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>มนุษยศาสตร์</t>
   </si>
@@ -118,9 +118,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>Biomed</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -133,21 +130,12 @@
     <t>วิจิตรศิลป์</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>รัฐศาสตร์</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>C_code</t>
   </si>
   <si>
-    <t>00808000</t>
-  </si>
-  <si>
     <t>00008000</t>
   </si>
   <si>
@@ -157,12 +145,6 @@
     <t>00FF99CC</t>
   </si>
   <si>
-    <t>00C0C0C0</t>
-  </si>
-  <si>
-    <t>00A0F0F0</t>
-  </si>
-  <si>
     <t>นิติศาสตร์</t>
   </si>
   <si>
@@ -193,22 +175,82 @@
     <t>13</t>
   </si>
   <si>
-    <t>00CCCCFF</t>
-  </si>
-  <si>
-    <t>000066CC</t>
-  </si>
-  <si>
-    <t>00CC99FF</t>
-  </si>
-  <si>
     <t>00666699</t>
   </si>
   <si>
     <t>00FFCC00</t>
   </si>
   <si>
-    <t>00FFA500</t>
+    <t>นโยบายสาธารณะ</t>
+  </si>
+  <si>
+    <t>นานาชาติฯ</t>
+  </si>
+  <si>
+    <t>วิศวกรรมชีวการแพทย์</t>
+  </si>
+  <si>
+    <t>00FFFF00</t>
+  </si>
+  <si>
+    <t>007030A0</t>
+  </si>
+  <si>
+    <t>00CCFFFF</t>
+  </si>
+  <si>
+    <t>00FF00FF</t>
+  </si>
+  <si>
+    <t>00993300</t>
+  </si>
+  <si>
+    <t>00FFCC99</t>
+  </si>
+  <si>
+    <t>0099CCFF</t>
+  </si>
+  <si>
+    <t>0000CCFF</t>
+  </si>
+  <si>
+    <t>00A9D08E</t>
+  </si>
+  <si>
+    <t>00800000</t>
+  </si>
+  <si>
+    <t>00F19E39</t>
+  </si>
+  <si>
+    <t>00C59BF8</t>
+  </si>
+  <si>
+    <t>003F65F5</t>
+  </si>
+  <si>
+    <t>00CBCCFC</t>
+  </si>
+  <si>
+    <t>007F8025</t>
+  </si>
+  <si>
+    <t>00C0BFC0</t>
+  </si>
+  <si>
+    <t>0092D050</t>
+  </si>
+  <si>
+    <t>00FFD966</t>
+  </si>
+  <si>
+    <t>00000080</t>
+  </si>
+  <si>
+    <t>00D9D9D9</t>
+  </si>
+  <si>
+    <t>00FF0000</t>
   </si>
 </sst>
 </file>
@@ -340,12 +382,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,12 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,6 +485,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,12 +541,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,70 +554,59 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -591,6 +619,46 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Currency 2" xfId="4" xr:uid="{C57C9BE1-CCA2-4F6D-BB39-1B58FB886CB0}"/>
@@ -610,6 +678,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9902"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -921,12 +994,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="38"/>
+    <col min="6" max="6" width="8.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -942,10 +1017,10 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -954,17 +1029,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
-        <v>423</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="15">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C2" s="47">
+        <v>406</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -972,17 +1047,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
-        <v>167</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="15">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="C3" s="47">
+        <v>100</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -990,17 +1065,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14">
-        <v>291</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="15">
-        <v>7</v>
+      <c r="C4" s="47">
+        <v>321</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="34">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1008,17 +1083,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14">
-        <v>266</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="15">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C5" s="47">
+        <v>213</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="34">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1026,17 +1101,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="14">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="47">
+        <v>164</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="34">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1046,14 +1121,14 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14">
-        <v>401</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="C7" s="47">
+        <v>561</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="34">
         <v>15</v>
       </c>
     </row>
@@ -1062,17 +1137,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="14">
-        <v>181</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="15">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="47">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1080,17 +1155,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="14">
-        <v>303</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="15">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="47">
+        <v>4</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="46" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1098,35 +1170,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="14">
-        <v>103</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="47">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="14">
-        <v>411</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>49</v>
+      <c r="B11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="48">
+        <v>258</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="33">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1134,17 +1203,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="14">
-        <v>221</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="47">
+        <v>306</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="34">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1152,24 +1221,54 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="14">
-        <v>605</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="47">
+        <v>599</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="34">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="E14" s="33"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="48">
+        <v>255</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" s="34"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="47">
+        <v>291</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="34">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1179,19 +1278,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3E886D-CC64-44FD-BB23-8A5B510A9D8A}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAEF00F-8625-6049-A7DD-CD7DB275C14A}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="38"/>
+    <col min="6" max="6" width="8.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,189 +1305,243 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="16">
+        <v>575</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16">
+        <v>218</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16">
+        <v>391</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16">
+        <v>452</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16">
+        <v>108</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16">
+        <v>215</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15">
+        <v>82</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16">
-        <v>19</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="17">
+      <c r="C10" s="13">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="14">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="18">
-        <v>72</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="19">
-        <v>170</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="19">
-        <v>72</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="19">
-        <v>445</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="19">
-        <v>176</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="19">
-        <v>340</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12">
+        <v>281</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19">
-        <v>799</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="17" t="s">
+      <c r="C12" s="16">
+        <v>863</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="19">
-        <v>548</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="19">
-        <v>236</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="16">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="18">
-        <v>271</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="12">
+        <v>262</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
